--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T16:23:32+00:00</t>
+    <t>2022-02-16T17:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T17:04:16+00:00</t>
+    <t>2022-02-16T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,13 +73,13 @@
   </si>
   <si>
     <t>Clinical document used to represent the Electronic Product Information (ePI) data set. 
-An Electronic Product Information (ePI) document is is authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
+An Electronic Product Information (ePI) document is an authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>An Electronic Product Information (ePI) document is is authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
+    <t>An Electronic Product Information (ePI) document is an authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -474,7 +474,7 @@
 </t>
   </si>
   <si>
-    <t>Version-independent identifier for the Composition</t>
+    <t>ePI business identifier</t>
   </si>
   <si>
     <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
@@ -501,7 +501,7 @@
     <t>Composition.status</t>
   </si>
   <si>
-    <t>preliminary | final | amended | entered-in-error | deprecated</t>
+    <t>preliminary|final|amended|entered-in-error|deprecated</t>
   </si>
   <si>
     <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
@@ -688,7 +688,7 @@
 </t>
   </si>
   <si>
-    <t>Composition editing time</t>
+    <t>Date of last revision of the ePI</t>
   </si>
   <si>
     <t>The composition editing time, when the composition was last logically changed by the author.</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -587,7 +587,7 @@
     <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
   </si>
   <si>
-    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
+    <t>This is a metadata field from [XDS/MHD](https://profiles.ihe.net/ITI/MHD/index.html).</t>
   </si>
   <si>
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -520,7 +520,7 @@
     <t>The workflow/clinical status of the composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -587,7 +587,7 @@
     <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
   </si>
   <si>
-    <t>This is a metadata field from [XDS/MHD](https://profiles.ihe.net/ITI/MHD/index.html).</t>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
   </si>
   <si>
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
@@ -788,7 +788,7 @@
     <t>Codes specifying the level of confidentiality of the composition.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-Confidentiality|2.0.0|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-Confidentiality|2.0.0</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -1207,7 +1207,7 @@
     <t>The processing mode that applies to this section.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
@@ -1625,7 +1625,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.0078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -623,11 +623,11 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/RegulatedAuthorization-uv-epi)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
-    <t>Who and/or what the composition is about</t>
+    <t>What the composition is about</t>
   </si>
   <si>
     <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
@@ -1062,10 +1062,6 @@
   </si>
   <si>
     <t>Composition.event.detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
   </si>
   <si>
     <t>The event(s) being documented</t>
@@ -3261,7 +3257,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>88</v>
@@ -5678,13 +5674,13 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5753,7 +5749,7 @@
         <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>165</v>
@@ -5767,7 +5763,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5793,10 +5789,10 @@
         <v>251</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5847,7 +5843,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5859,16 +5855,16 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -5879,7 +5875,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5991,7 +5987,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6105,7 +6101,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6221,11 +6217,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6247,16 +6243,16 @@
         <v>235</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>75</v>
@@ -6305,7 +6301,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6337,7 +6333,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6363,16 +6359,16 @@
         <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>75</v>
@@ -6400,11 +6396,11 @@
         <v>187</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6453,7 +6449,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6479,10 +6475,10 @@
         <v>225</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
@@ -6535,7 +6531,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6567,7 +6563,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6590,16 +6586,16 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6649,7 +6645,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6670,7 +6666,7 @@
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6681,7 +6677,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6707,13 +6703,13 @@
         <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6763,7 +6759,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6772,7 +6768,7 @@
         <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>100</v>
@@ -6781,10 +6777,10 @@
         <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6795,7 +6791,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6821,16 +6817,16 @@
         <v>108</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -6858,11 +6854,11 @@
         <v>160</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6879,7 +6875,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6897,7 +6893,7 @@
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>165</v>
@@ -6911,7 +6907,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6937,16 +6933,16 @@
         <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -6974,11 +6970,11 @@
         <v>112</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6995,7 +6991,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7013,7 +7009,7 @@
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>165</v>
@@ -7027,7 +7023,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7050,16 +7046,16 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7109,7 +7105,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7118,7 +7114,7 @@
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7127,10 +7123,10 @@
         <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7141,7 +7137,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7167,16 +7163,16 @@
         <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>75</v>
@@ -7204,11 +7200,11 @@
         <v>112</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7225,7 +7221,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7234,7 +7230,7 @@
         <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>100</v>
@@ -7243,7 +7239,7 @@
         <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>165</v>
@@ -7257,7 +7253,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7283,13 +7279,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7339,7 +7335,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7348,7 +7344,7 @@
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>100</v>
@@ -7357,10 +7353,10 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1598,43 +1598,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.51953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="73.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.17578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.37109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Composition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Composition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,14 +72,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Clinical document used to represent the Electronic Product Information (ePI) data set. 
-An Electronic Product Information (ePI) document is an authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
+    <t>The Composition captures the section headings, sub-section headings, and narrative text (For example, paragraphs, bulleted lists, tables) in an ePI.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>An Electronic Product Information (ePI) document is an authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
+    <t>This profile represents the constraints applied to the Composition resource used in an Electronic Product Information (ePI) document.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -254,8 +253,8 @@
   </si>
   <si>
     <t>Electronic Product Information composition. 
-A composition is a set of healthcare-related information that is assembled together into a single logical document that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. 
-While a Composition defines the structure, it does not actually contain the content: rather the full content of a document is contained in a Bundle, of which the Composition is the first resource contained.</t>
+A composition is a set of source of regulated and scientifically validated information that assists healthcare professionals in prescribing and dispensing the medicine and informs consumers about its safe and effective use. 
+While a Composition defines the structure and content of the ePI's narrative text, it does not contain the full content of an ePI document. The Bundle, of which the Composition is the first resource contained, is the container for the full  content of an ePI.</t>
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
@@ -474,7 +473,7 @@
 </t>
   </si>
   <si>
-    <t>ePI business identifier</t>
+    <t>Unique identifier only for this version of the Composition</t>
   </si>
   <si>
     <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
@@ -545,10 +544,10 @@
 </t>
   </si>
   <si>
-    <t>Kind of ePI ("Package Leaflet")</t>
-  </si>
-  <si>
-    <t>Specifies that this composition refers to a Package Leaflet (ePI)</t>
+    <t>Type of ePI document template</t>
+  </si>
+  <si>
+    <t>Specifies the type of ePI template. For example, Package Insert, Patient Information, Summary of Product Characteristics, Human Prescription, Drug Label.</t>
   </si>
   <si>
     <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
@@ -560,7 +559,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/epiType</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/epiType</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -581,10 +580,10 @@
     <t>Composition.category</t>
   </si>
   <si>
-    <t>ePI document</t>
-  </si>
-  <si>
-    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
+    <t>High-level type of document</t>
+  </si>
+  <si>
+    <t>High-level type of document. For example, Human Prescription Drug Label, Human OTC Drug Label</t>
   </si>
   <si>
     <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
@@ -627,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t>What the composition is about</t>
+    <t>The authorized medicinal product(s) that this ePI's composition is about</t>
   </si>
   <si>
     <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
@@ -689,7 +688,7 @@
 </t>
   </si>
   <si>
-    <t>Date of last revision of the ePI</t>
+    <t>Date of last revision for this version of the authorized ePI.</t>
   </si>
   <si>
     <t>The composition editing time, when the composition was last logically changed by the author.</t>
@@ -723,10 +722,10 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what authored the ePI, that is the Markting Authorization Holder</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in the ePI.</t>
+    <t>The Organization responsible for the ePI</t>
+  </si>
+  <si>
+    <t>Link to the Organization resource that describes the organization responsible for the ePI (For example, Markting Authorization Holder).</t>
   </si>
   <si>
     <t>Identifies who is responsible for the content.</t>
@@ -754,11 +753,10 @@
 </t>
   </si>
   <si>
-    <t>Electronic Product Information</t>
-  </si>
-  <si>
-    <t>Official human-readable label for the composition.
-For this document should be "Electronic Product Information" or any equivalent translation</t>
+    <t>Title of the ePI Document</t>
+  </si>
+  <si>
+    <t>A brief summary name describing the ePI. The title should include: Proprietary Name(s) (Non-proprietary Name(s)) Dosage Form, Route of Administration.</t>
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
@@ -875,14 +873,6 @@
     <t>Indicates the level of authority of the attestation.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/composition-attestation-mode"/&gt;
-    &lt;code value="official"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>The way in which a person authenticated a composition.</t>
   </si>
   <si>
@@ -945,7 +935,7 @@
 </t>
   </si>
   <si>
-    <t>Organization which maintains the composition.</t>
+    <t>Organization which maintains the composition</t>
   </si>
   <si>
     <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
@@ -973,10 +963,10 @@
 </t>
   </si>
   <si>
-    <t>Relationships to other ePI compositions/documents</t>
-  </si>
-  <si>
-    <t>Relationships that this composition has with other compositions or documents that already exist.</t>
+    <t>Cross-reference to anotherother ePI compositions or ePI document()s)</t>
+  </si>
+  <si>
+    <t>A cross-reference from this ePI's composition to another related Composition or ePI document.</t>
   </si>
   <si>
     <t>A document is a version specific composition.</t>
@@ -1076,10 +1066,10 @@
     <t>Composition.section</t>
   </si>
   <si>
-    <t>Sections composing the ePI</t>
-  </si>
-  <si>
-    <t>The root of the sections that make up the ePI composition.</t>
+    <t>Level 1 section heading for the whole ePI</t>
+  </si>
+  <si>
+    <t>This is the root or level 1 section heading in the ePI. All other section headings are sub-sections, or children, of this section heading</t>
   </si>
   <si>
     <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
@@ -1123,7 +1113,7 @@
     <t>Composition.section.code</t>
   </si>
   <si>
-    <t>Classification of section (recommended)</t>
+    <t>unique identifier for this section.</t>
   </si>
   <si>
     <t>A code identifying the kind of content contained within the section. This must be consistent with the section title.</t>
@@ -1169,7 +1159,7 @@
     <t>Composition.section.text</t>
   </si>
   <si>
-    <t>Section text</t>
+    <t>Narrative text for this section.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains the attested content of the section, used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative.</t>
@@ -1258,7 +1248,7 @@
     <t>Composition.section.emptyReason</t>
   </si>
   <si>
-    <t>Why the section is empty.</t>
+    <t>Reason the section is empty.</t>
   </si>
   <si>
     <t>If the section is empty, why the list is empty. An empty section typically has some text explaining the empty reason.</t>
@@ -1282,7 +1272,7 @@
     <t>Composition.section.section</t>
   </si>
   <si>
-    <t>Nested Section.</t>
+    <t>Nested Sections (sub-section headings for level 2, 3, 4 or 5).</t>
   </si>
   <si>
     <t>A nested sub-section within this section.</t>
@@ -3945,10 +3935,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -4438,7 +4428,7 @@
         <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>75</v>
@@ -4456,10 +4446,10 @@
         <v>112</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>75</v>
@@ -4495,10 +4485,10 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -4509,7 +4499,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4517,7 +4507,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>88</v>
@@ -4535,14 +4525,14 @@
         <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>75</v>
@@ -4591,7 +4581,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4609,10 +4599,10 @@
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -4623,7 +4613,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4646,17 +4636,17 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4705,7 +4695,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4723,21 +4713,21 @@
         <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4748,7 +4738,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>75</v>
@@ -4760,19 +4750,19 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>75</v>
@@ -4821,7 +4811,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4839,13 +4829,13 @@
         <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>75</v>
@@ -4853,7 +4843,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4876,16 +4866,16 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4935,7 +4925,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4953,13 +4943,13 @@
         <v>75</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>75</v>
@@ -4967,7 +4957,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4993,16 +4983,16 @@
         <v>251</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>75</v>
@@ -5051,7 +5041,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5069,13 +5059,13 @@
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>75</v>
@@ -5083,7 +5073,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5195,7 +5185,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5309,7 +5299,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5425,7 +5415,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5451,13 +5441,13 @@
         <v>169</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5486,11 +5476,11 @@
         <v>187</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5507,7 +5497,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5531,7 +5521,7 @@
         <v>178</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5539,7 +5529,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5562,13 +5552,13 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5619,7 +5609,7 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5643,7 +5633,7 @@
         <v>221</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5651,7 +5641,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5677,10 +5667,10 @@
         <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5731,7 +5721,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5749,7 +5739,7 @@
         <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>165</v>
@@ -5763,7 +5753,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5789,10 +5779,10 @@
         <v>251</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5843,7 +5833,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5855,16 +5845,16 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -5875,7 +5865,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5987,7 +5977,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6101,7 +6091,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6217,11 +6207,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6243,16 +6233,16 @@
         <v>235</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>75</v>
@@ -6301,7 +6291,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6333,7 +6323,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6359,16 +6349,16 @@
         <v>169</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>75</v>
@@ -6396,11 +6386,11 @@
         <v>187</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6417,7 +6407,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6449,7 +6439,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6475,10 +6465,10 @@
         <v>225</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
@@ -6531,7 +6521,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6563,7 +6553,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6589,13 +6579,13 @@
         <v>194</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6645,7 +6635,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6666,7 +6656,7 @@
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6677,7 +6667,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6703,13 +6693,13 @@
         <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6759,7 +6749,7 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6768,7 +6758,7 @@
         <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>100</v>
@@ -6777,10 +6767,10 @@
         <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6791,7 +6781,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6817,16 +6807,16 @@
         <v>108</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -6854,11 +6844,11 @@
         <v>160</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6875,7 +6865,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6893,7 +6883,7 @@
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>165</v>
@@ -6907,7 +6897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6933,16 +6923,16 @@
         <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -6970,11 +6960,11 @@
         <v>112</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6991,7 +6981,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7009,7 +6999,7 @@
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>165</v>
@@ -7023,7 +7013,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7049,13 +7039,13 @@
         <v>194</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7105,7 +7095,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7114,7 +7104,7 @@
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>100</v>
@@ -7123,10 +7113,10 @@
         <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7137,7 +7127,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7163,16 +7153,16 @@
         <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>75</v>
@@ -7200,11 +7190,11 @@
         <v>112</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7221,7 +7211,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7230,7 +7220,7 @@
         <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>100</v>
@@ -7239,7 +7229,7 @@
         <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>165</v>
@@ -7253,7 +7243,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7279,13 +7269,13 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7335,7 +7325,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7344,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>100</v>
@@ -7353,10 +7343,10 @@
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-Composition-uv-epi.xlsx
+++ b/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
